--- a/Proyectos/Viaticos/01. Requerimientos/Viaticos-MatrizRastreabilidad.xlsx
+++ b/Proyectos/Viaticos/01. Requerimientos/Viaticos-MatrizRastreabilidad.xlsx
@@ -15,27 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="29">
   <si>
     <t>Nombre del Proyecto:</t>
   </si>
   <si>
-    <t>Viaticos</t>
-  </si>
-  <si>
     <t>Lider de Proyecto:</t>
-  </si>
-  <si>
-    <t>Jovanny Zepeda</t>
   </si>
   <si>
     <t>ID Req.</t>
   </si>
   <si>
     <t>Nombre Requerimiento</t>
-  </si>
-  <si>
-    <t>Casos de Prueba</t>
   </si>
   <si>
     <t>Estado</t>
@@ -80,7 +71,7 @@
     <t>CU10</t>
   </si>
   <si>
-    <t>CU01: Manejo de usuarios</t>
+    <t>Se requiere necesario poder dar de alta usuarios con password para el acceso al mismo, para la generación de los mismos únicamente podrá ser a través de un usuario administrador del sistema.</t>
   </si>
   <si>
     <t>Activo</t>
@@ -92,19 +83,25 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>CU02 Administración de proyectos y áreas de proyectos</t>
+    <t>Cada usuario podrá ser capaz de dar de alta proyectos o áreas de trabajo.</t>
   </si>
   <si>
-    <t>CU03 Administración Viáticos por proyecto</t>
+    <t>Por cada área o proyecto el usuario podrá ser capaz de dar de alta Viáticos que solicita para llevar a cabo las consultorías programadas.</t>
   </si>
   <si>
-    <t>CU04 Administración de Gastos</t>
+    <t>Cada usuario que esté involucrado en el proyecto podrá dar de alta un gasto, para poder realizar ello previamente el usuario Administrador del proyecto deberá agregarlo a la lista de participantes.</t>
   </si>
   <si>
-    <t>CU05 Generación de reportes</t>
+    <t>Por cada gasto registrado se deberá contener la información del reporte de viáticos más la captura del comprobante, los datos requeridos para la generación de este reporte serán: número de comprobante, proyecto al que pertenece, fecha en la que se realizó el gasto, Tipo de gasto, importe y comentarios al mismo, también se deberá agregar un campo adicional que marque si es o no un gasto con comprobante.</t>
   </si>
   <si>
-    <t>CU06 Edición Gastos y Viáticos</t>
+    <t>A su vez el usuario podrá generar un reporte de gastos que deberá ser generado en Excel conteniendo los siguientes campos: Deposito Adelantado siendo este la sumatoria de los viáticos otorgados (hace referencia al dinero que reciben para generar los gastos del proyecto por lo tanto el usuario puede registrar viáticos cada cierto tiempo ingresando al proyecto sobre el cual se generaran los gastos), columna de comprobante (mencionara si el registro contiene comprobante o no), numero de comprobante, proyecto al que pertenece el comprobante, fecha en la que se generó el gasto, Tipo de gasto, importe y comentarios , dicho reporte sera generado a partir de una fecha de inicio y de fin seleccionada por el usuario.</t>
+  </si>
+  <si>
+    <t>Los usuarios serán capaces de editar el contenido de Viáticos y Gastos para definir si esta activo o no.</t>
+  </si>
+  <si>
+    <t>El sistema deberá permitir al usuario recuperar su contraseña a través de un correo enviado por la aplicación a solicitud del usuario, así como un envío de correo tras generar el registro del usuario para que este previamente lo confirme antes de usar dicha cuenta.</t>
   </si>
 </sst>
 </file>
@@ -114,7 +111,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -167,15 +164,19 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial Narrow"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,8 +189,14 @@
         <bgColor rgb="FF333300"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -210,6 +217,13 @@
       <bottom style="thin">
         <color rgb="FF595959"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -238,7 +252,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -275,12 +289,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -359,16 +377,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>586440</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>613440</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>26640</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>53280</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>824400</xdr:rowOff>
+      <xdr:rowOff>824040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -381,8 +399,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13984920" y="0"/>
-          <a:ext cx="3517200" cy="824400"/>
+          <a:off x="15140160" y="0"/>
+          <a:ext cx="3517200" cy="824040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -404,19 +422,20 @@
   </sheetPr>
   <dimension ref="1:36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O8" activeCellId="0" sqref="O8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="24.2793522267206"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.4251012145749"/>
-    <col collapsed="false" hidden="false" max="14" min="5" style="1" width="8.4251012145749"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="23"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="22.8502024291498"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="61.251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="13" min="4" style="1" width="8.4251012145749"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="23"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="22.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1023" min="16" style="1" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="11.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="67.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1443,19 +1462,16 @@
       <c r="AMG1" s="0"/>
       <c r="AMH1" s="0"/>
       <c r="AMI1" s="0"/>
-      <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -1464,7 +1480,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
+      <c r="O2" s="0"/>
       <c r="P2" s="0"/>
       <c r="Q2" s="0"/>
       <c r="R2" s="0"/>
@@ -2473,19 +2489,16 @@
       <c r="AMG2" s="0"/>
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
-      <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -2494,7 +2507,7 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
+      <c r="O3" s="0"/>
       <c r="P3" s="0"/>
       <c r="Q3" s="0"/>
       <c r="R3" s="0"/>
@@ -3503,13 +3516,12 @@
       <c r="AMG3" s="0"/>
       <c r="AMH3" s="0"/>
       <c r="AMI3" s="0"/>
-      <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -3520,7 +3532,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
+      <c r="O4" s="0"/>
       <c r="P4" s="0"/>
       <c r="Q4" s="0"/>
       <c r="R4" s="0"/>
@@ -4529,24 +4541,21 @@
       <c r="AMG4" s="0"/>
       <c r="AMH4" s="0"/>
       <c r="AMI4" s="0"/>
-      <c r="AMJ4" s="0"/>
     </row>
     <row r="5" s="7" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -4555,68 +4564,65 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="O5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="AMJ5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="n">
         <v>1</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="8" t="n">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -4625,31 +4631,28 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
+      <c r="N7" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="O7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="43.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -4657,189 +4660,192 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
+      <c r="N8" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="O8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="B9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="F9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
+      <c r="N9" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="O9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="L10" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
+      <c r="N10" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="O10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="B11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="G11" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="H11" s="8"/>
-      <c r="I11" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
+      <c r="N11" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="O11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>22</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="H12" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="I12" s="8"/>
-      <c r="J12" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
+      <c r="N12" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="O12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8" t="s">
-        <v>22</v>
-      </c>
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="I13" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
+      <c r="N13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8" t="s">
-        <v>22</v>
-      </c>
+    <row r="14" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+      <c r="J14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
     </row>
-    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="C15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -4851,15 +4857,14 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
     </row>
-    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="C16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -4871,15 +4876,14 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
     </row>
-    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="C17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -4891,15 +4895,14 @@
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
     </row>
-    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="C18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -4911,15 +4914,14 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
     </row>
-    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="C19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -4931,15 +4933,14 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
     </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="C20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -4951,15 +4952,14 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
     </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="C21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -4971,15 +4971,14 @@
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
     </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="C22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -4991,15 +4990,14 @@
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
     </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="C23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -5011,15 +5009,14 @@
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
     </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="C24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -5031,15 +5028,14 @@
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
     </row>
-    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="C25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -5051,15 +5047,14 @@
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
     </row>
-    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="C26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -5071,15 +5066,14 @@
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
     </row>
-    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="C27" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
@@ -5091,15 +5085,14 @@
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
     </row>
-    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="C28" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -5111,15 +5104,14 @@
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
     </row>
-    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="C29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -5131,15 +5123,14 @@
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
     </row>
-    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="C30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
@@ -5151,15 +5142,14 @@
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
     </row>
-    <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="C31" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
@@ -5171,15 +5161,14 @@
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
     </row>
-    <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="C32" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
@@ -5191,15 +5180,14 @@
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
     </row>
-    <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="C33" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
@@ -5211,15 +5199,14 @@
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
     </row>
-    <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="C34" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
@@ -5231,15 +5218,14 @@
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
     </row>
-    <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="C35" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
@@ -5251,15 +5237,14 @@
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
     </row>
-    <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="C36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
@@ -5271,29 +5256,25 @@
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="9">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:N5"/>
+    <mergeCell ref="D5:M5"/>
+    <mergeCell ref="N5:N6"/>
     <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7 D9 D11 D13 D15 D17 D19 D21 D23 D25 D27 D29 D31 D33 D35" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C7 C9 C12 C14:C15 C17 C19 C21 C23 C25 C27 C29 C31 C33 C35" type="list">
       <formula1>"Activo,Concluido,Eliminado"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D8 D10 D12 D14 D16 D18 D20 D22 D24 D26 D28 D30 D32 D34 D36" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C8 C10:C11 C13 C16 C18 C20 C22 C24 C26 C28 C30 C32 C34 C36" type="list">
       <formula1>"Activo,Concluido,Eliminado,M-Activo,M-Concluido,M-Eliminado"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/Proyectos/Viaticos/01. Requerimientos/Viaticos-MatrizRastreabilidad.xlsx
+++ b/Proyectos/Viaticos/01. Requerimientos/Viaticos-MatrizRastreabilidad.xlsx
@@ -15,18 +15,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="33">
   <si>
     <t>Nombre del Proyecto:</t>
+  </si>
+  <si>
+    <t>Viáticos</t>
   </si>
   <si>
     <t>Lider de Proyecto:</t>
   </si>
   <si>
-    <t>ID Req.</t>
+    <t>Jovanny Zepeda</t>
+  </si>
+  <si>
+    <t>Clave requerimiento</t>
   </si>
   <si>
     <t>Nombre Requerimiento</t>
+  </si>
+  <si>
+    <t>Casos de Prueba</t>
   </si>
   <si>
     <t>Estado</t>
@@ -89,13 +98,16 @@
     <t>Por cada área o proyecto el usuario podrá ser capaz de dar de alta Viáticos que solicita para llevar a cabo las consultorías programadas.</t>
   </si>
   <si>
-    <t>Cada usuario que esté involucrado en el proyecto podrá dar de alta un gasto, para poder realizar ello previamente el usuario Administrador del proyecto deberá agregarlo a la lista de participantes.</t>
+    <t>A su vez el usuario podrá generar un reporte de gastos que deberá ser generado en Excel conteniendo los siguientes campos: Deposito Adelantado siendo este la sumatoria de los viáticos otorgados (hace referencia al dinero que reciben para generar los gastos del proyecto por lo tanto el usuario puede registrar viáticos cada cierto tiempo ingresando al proyecto sobre el cual se generaran los gastos), columna de comprobante (mencionara si el registro contiene comprobante o no), numero de comprobante, proyecto al que pertenece el comprobante, fecha en la que se generó el gasto, Tipo de gasto, importe y comentarios , dicho reporte sera generado a partir de una fecha de inicio y de fin seleccionada por el usuario.</t>
+  </si>
+  <si>
+    <t>Cada usuario que esté involucrado en el proyecto podrá dar de alta un gasto o un viático, para poder realizar ello previamente el usuario Administrador del proyecto deberá agregarlo a la lista de participantes.</t>
+  </si>
+  <si>
+    <t>5,4,10</t>
   </si>
   <si>
     <t>Por cada gasto registrado se deberá contener la información del reporte de viáticos más la captura del comprobante, los datos requeridos para la generación de este reporte serán: número de comprobante, proyecto al que pertenece, fecha en la que se realizó el gasto, Tipo de gasto, importe y comentarios al mismo, también se deberá agregar un campo adicional que marque si es o no un gasto con comprobante.</t>
-  </si>
-  <si>
-    <t>A su vez el usuario podrá generar un reporte de gastos que deberá ser generado en Excel conteniendo los siguientes campos: Deposito Adelantado siendo este la sumatoria de los viáticos otorgados (hace referencia al dinero que reciben para generar los gastos del proyecto por lo tanto el usuario puede registrar viáticos cada cierto tiempo ingresando al proyecto sobre el cual se generaran los gastos), columna de comprobante (mencionara si el registro contiene comprobante o no), numero de comprobante, proyecto al que pertenece el comprobante, fecha en la que se generó el gasto, Tipo de gasto, importe y comentarios , dicho reporte sera generado a partir de una fecha de inicio y de fin seleccionada por el usuario.</t>
   </si>
   <si>
     <t>Los usuarios serán capaces de editar el contenido de Viáticos y Gastos para definir si esta activo o no.</t>
@@ -111,7 +123,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -143,6 +155,7 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
@@ -164,14 +177,21 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -252,7 +272,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -265,7 +285,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -281,20 +301,32 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -377,16 +409,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>613440</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>667800</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>53280</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>106920</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>824040</xdr:rowOff>
+      <xdr:rowOff>823320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -399,8 +431,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15140160" y="0"/>
-          <a:ext cx="3517200" cy="824040"/>
+          <a:off x="16858800" y="0"/>
+          <a:ext cx="3516480" cy="823320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -423,19 +455,18 @@
   <dimension ref="1:36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.42914979757085"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.7165991902834"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="61.251012145749"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.4251012145749"/>
-    <col collapsed="false" hidden="false" max="13" min="4" style="1" width="8.4251012145749"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="23"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="22.8502024291498"/>
-    <col collapsed="false" hidden="false" max="1023" min="16" style="1" width="11.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="14" min="5" style="1" width="8.4251012145749"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="23"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="22.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="11.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="67.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1462,16 +1493,19 @@
       <c r="AMG1" s="0"/>
       <c r="AMH1" s="0"/>
       <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -1480,7 +1514,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
-      <c r="O2" s="0"/>
+      <c r="O2" s="4"/>
       <c r="P2" s="0"/>
       <c r="Q2" s="0"/>
       <c r="R2" s="0"/>
@@ -2489,16 +2523,19 @@
       <c r="AMG2" s="0"/>
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -2507,7 +2544,7 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
-      <c r="O3" s="0"/>
+      <c r="O3" s="4"/>
       <c r="P3" s="0"/>
       <c r="Q3" s="0"/>
       <c r="R3" s="0"/>
@@ -3516,12 +3553,13 @@
       <c r="AMG3" s="0"/>
       <c r="AMH3" s="0"/>
       <c r="AMI3" s="0"/>
+      <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -3532,7 +3570,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
-      <c r="O4" s="0"/>
+      <c r="O4" s="4"/>
       <c r="P4" s="0"/>
       <c r="Q4" s="0"/>
       <c r="R4" s="0"/>
@@ -4541,21 +4579,24 @@
       <c r="AMG4" s="0"/>
       <c r="AMH4" s="0"/>
       <c r="AMI4" s="0"/>
+      <c r="AMJ4" s="0"/>
     </row>
     <row r="5" s="7" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -4564,717 +4605,777 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AMJ5" s="0"/>
+        <v>9</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="8" t="s">
-        <v>21</v>
+      <c r="C7" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>21</v>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>21</v>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>21</v>
+      <c r="P10" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>21</v>
+      <c r="D12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>21</v>
+        <v>8</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:M5"/>
-    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:N5"/>
     <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C7 C9 C12 C14:C15 C17 C19 C21 C23 C25 C27 C29 C31 C33 C35" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7 D9 D12 D14:D15 D17 D19 D21 D23 D25 D27 D29 D31 D33 D35" type="list">
       <formula1>"Activo,Concluido,Eliminado"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C8 C10:C11 C13 C16 C18 C20 C22 C24 C26 C28 C30 C32 C34 C36" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D8 D10:D11 D13 D16 D18 D20 D22 D24 D26 D28 D30 D32 D34 D36" type="list">
       <formula1>"Activo,Concluido,Eliminado,M-Activo,M-Concluido,M-Eliminado"</formula1>
       <formula2>0</formula2>
     </dataValidation>
